--- a/Capstone Dataset without Answers.xlsx
+++ b/Capstone Dataset without Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://m1limited-my.sharepoint.com/personal/leezh_m1_com_sg/Documents/School/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2fec667f7c86ea8/Important/Capstone/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="784" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F43F65B9-03CC-4C92-A089-A0E15A82DC7A}"/>
+  <xr:revisionPtr revIDLastSave="789" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C6B1A5-9E68-4642-9A2C-A98FBE99F774}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="17" activeTab="19" xr2:uid="{C4378324-5452-4919-A683-490F04C84E34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="22" xr2:uid="{C4378324-5452-4919-A683-490F04C84E34}"/>
   </bookViews>
   <sheets>
     <sheet name="General Questions" sheetId="13" r:id="rId1"/>
@@ -27,14 +27,16 @@
     <sheet name="B.11 BYOD" sheetId="18" r:id="rId12"/>
     <sheet name="B.12 System Security" sheetId="19" r:id="rId13"/>
     <sheet name="B.13 Antimalware Antivirus" sheetId="20" r:id="rId14"/>
-    <sheet name="B.14 SDLC" sheetId="23" r:id="rId15"/>
-    <sheet name="B.15 Access Control" sheetId="21" r:id="rId16"/>
-    <sheet name="B.16 Cyber threat management" sheetId="24" r:id="rId17"/>
-    <sheet name="B.18 Vulnerability Accessment" sheetId="25" r:id="rId18"/>
-    <sheet name="B.20 Network security" sheetId="26" r:id="rId19"/>
-    <sheet name="B.21 Incident response" sheetId="22" r:id="rId20"/>
-    <sheet name="B.22 Business continuity" sheetId="27" r:id="rId21"/>
-    <sheet name="CS Preparedness Questionaire" sheetId="15" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId15"/>
+    <sheet name="B.14 SDLC" sheetId="23" r:id="rId16"/>
+    <sheet name="B.15 Access Control" sheetId="21" r:id="rId17"/>
+    <sheet name="B.16 Cyber threat management" sheetId="24" r:id="rId18"/>
+    <sheet name="B.18 Vulnerability Accessment" sheetId="25" r:id="rId19"/>
+    <sheet name="B.20 Network security" sheetId="26" r:id="rId20"/>
+    <sheet name="B.21 Incident response" sheetId="22" r:id="rId21"/>
+    <sheet name="B.22 Business continuity" sheetId="27" r:id="rId22"/>
+    <sheet name="CS Preparedness Questionaire" sheetId="15" r:id="rId23"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3676,7 +3678,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3826,31 +3828,26 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3865,7 +3862,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3877,8 +3874,11 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3888,6 +3888,499 @@
     <cellStyle name="Normal 8" xfId="1" xr:uid="{B14A744C-1278-4037-BBF5-C6D18308145D}"/>
   </cellStyles>
   <dxfs count="75">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3976,6 +4469,164 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4083,657 +4734,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -6011,24 +6011,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{C6E3C522-EBBE-4B24-B8DE-77D2B9C3B79A}" name="Table19" displayName="Table19" ref="A1:D4" totalsRowShown="0">
   <autoFilter ref="A1:D4" xr:uid="{C6E3C522-EBBE-4B24-B8DE-77D2B9C3B79A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6BDACC74-6BC2-4C18-98FF-52B490EE3167}" name="Clause" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CDF75C90-A181-4BE7-9315-12F74804FD61}" name="Preparedness Tier" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{929F8533-7411-4E87-A9C8-59F1B0868656}" name="Clause Question" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3340F4EE-6E85-4307-B214-C91063847F3B}" name="Possible Solution" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6BDACC74-6BC2-4C18-98FF-52B490EE3167}" name="Clause" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{CDF75C90-A181-4BE7-9315-12F74804FD61}" name="Preparedness Tier" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{929F8533-7411-4E87-A9C8-59F1B0868656}" name="Clause Question" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{3340F4EE-6E85-4307-B214-C91063847F3B}" name="Possible Solution" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E59F314D-5E83-40D6-9F71-66B5A75D9E4F}" name="Table17" displayName="Table17" ref="A1:E15" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E59F314D-5E83-40D6-9F71-66B5A75D9E4F}" name="Table17" displayName="Table17" ref="A1:E15" totalsRowShown="0" dataDxfId="33">
   <autoFilter ref="A1:E15" xr:uid="{E59F314D-5E83-40D6-9F71-66B5A75D9E4F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{407B9FC3-10BD-4BA6-9F90-CA14117CC84E}" name="Clause" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{8DFF83BA-5CC2-4654-8E9E-3B9652A5A531}" name="Preparedness Tier" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{0D2FFCD7-7746-4D62-8429-CE33A4C0CE61}" name="Clause Question" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{477F4F60-B541-4967-88DA-6BA43E494EB3}" name="Steps to take to meet clause" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{4B08744F-ABD4-44BB-AE58-CE02FC324F0B}" name="Possible Solution" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{407B9FC3-10BD-4BA6-9F90-CA14117CC84E}" name="Clause" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{8DFF83BA-5CC2-4654-8E9E-3B9652A5A531}" name="Preparedness Tier" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{0D2FFCD7-7746-4D62-8429-CE33A4C0CE61}" name="Clause Question" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{477F4F60-B541-4967-88DA-6BA43E494EB3}" name="Steps to take to meet clause" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{4B08744F-ABD4-44BB-AE58-CE02FC324F0B}" name="Possible Solution" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6040,8 +6040,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A3D5DBF2-E502-49A1-8D27-437F8CFE5A53}" name="Clause"/>
     <tableColumn id="2" xr3:uid="{AA0E7222-F7A8-41B9-8381-BE56F1739D50}" name="Preparedness Tier"/>
-    <tableColumn id="3" xr3:uid="{2F152850-97D5-400F-B2E7-B1B4771B1D64}" name="Clause Question" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C3E0A26B-8BA0-4FC9-BD54-2E7AD30E5DC0}" name="Possible Solution" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{2F152850-97D5-400F-B2E7-B1B4771B1D64}" name="Clause Question" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{C3E0A26B-8BA0-4FC9-BD54-2E7AD30E5DC0}" name="Possible Solution" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6053,21 +6053,21 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A52A9E97-C2CF-40F7-A0A3-8EDCE9F5975B}" name="Clause"/>
     <tableColumn id="2" xr3:uid="{300DB7CD-09D2-43CE-9DDF-C6BD58E6FC79}" name="Preparedness Tier"/>
-    <tableColumn id="3" xr3:uid="{1C632638-A181-4C8D-B48C-A5B696C61D30}" name="Clause Question" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{8AA26D8D-BB87-4978-B910-97ABB5DAB8E1}" name="Possible Solution" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{1C632638-A181-4C8D-B48C-A5B696C61D30}" name="Clause Question" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{8AA26D8D-BB87-4978-B910-97ABB5DAB8E1}" name="Possible Solution" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E0C99A74-4C63-4D14-A922-2B1863C58102}" name="Table22" displayName="Table22" ref="A1:D6" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E0C99A74-4C63-4D14-A922-2B1863C58102}" name="Table22" displayName="Table22" ref="A1:D6" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:D6" xr:uid="{E0C99A74-4C63-4D14-A922-2B1863C58102}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2FCBCD15-90E8-4A3A-B8B6-D5C964C930E7}" name="Clause" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{907CAA13-8918-42A7-9DA7-E8E0EF9FD053}" name="Preparedness Tier" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{73C0E836-38F5-481D-833C-8E45E335D06F}" name="Clause Question" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D06211AD-88C1-44B8-98D1-96E5920991A2}" name="Possible Solution" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2FCBCD15-90E8-4A3A-B8B6-D5C964C930E7}" name="Clause" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{907CAA13-8918-42A7-9DA7-E8E0EF9FD053}" name="Preparedness Tier" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{73C0E836-38F5-481D-833C-8E45E335D06F}" name="Clause Question" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{D06211AD-88C1-44B8-98D1-96E5920991A2}" name="Possible Solution" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6089,10 +6089,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85619B4A-6453-469A-9412-9F5AA5D7F89D}" name="Table18" displayName="Table18" ref="A1:E4" totalsRowShown="0">
   <autoFilter ref="A1:E4" xr:uid="{85619B4A-6453-469A-9412-9F5AA5D7F89D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F294A7D4-2BF7-4128-87FA-AC5B7DF029C4}" name="Clause" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{F294A7D4-2BF7-4128-87FA-AC5B7DF029C4}" name="Clause" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{63D24207-33C4-4D71-894D-9257ED3F22AA}" name="Preparedness Tier"/>
-    <tableColumn id="4" xr3:uid="{5F07FA87-6751-4170-8414-DE3DB197802D}" name="Clause Question" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{6518D7C9-FA2B-4584-9A43-F3D5D78F74BD}" name="Steps to take to meet clause" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{5F07FA87-6751-4170-8414-DE3DB197802D}" name="Clause Question" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{6518D7C9-FA2B-4584-9A43-F3D5D78F74BD}" name="Steps to take to meet clause" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{C43A0466-1977-4DE6-B6B2-8501CD1C96FE}" name="Possible Solutions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6100,29 +6100,35 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{DF3BFA89-E2F0-483C-B952-295722764174}" name="Table23" displayName="Table23" ref="A1:D5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{DF3BFA89-E2F0-483C-B952-295722764174}" name="Table23" displayName="Table23" ref="A1:D5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D5" xr:uid="{DF3BFA89-E2F0-483C-B952-295722764174}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{640E99A2-82CB-4C06-A628-54B6043CE677}" name="Clause"/>
-    <tableColumn id="2" xr3:uid="{48CA5FCC-2AA8-454D-9701-D5E441559C47}" name="Preparedness Tier" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9738F314-378C-4436-83FA-38D65065CC30}" name="Clause Question" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{568188B1-C62C-45EF-811C-644D0DDC7353}" name="Possible Solution" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{48CA5FCC-2AA8-454D-9701-D5E441559C47}" name="Preparedness Tier" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9738F314-378C-4436-83FA-38D65065CC30}" name="Clause Question" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{568188B1-C62C-45EF-811C-644D0DDC7353}" name="Possible Solution" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}" name="Table10" displayName="Table10" ref="A1:G221" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G221" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}" name="Table10" displayName="Table10" ref="A1:G221" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G221" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="B.9 Domain: Data protection and privacy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{FEC9D894-227E-4219-A03C-52ECD74A9F19}" name="Domain" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{49513455-20B4-439C-9C74-4130F74BF6C0}" name="Clause" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{269001BA-1D6A-4AE1-BC7F-76BF79027805}" name="Preparedness Tier" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{6EF80625-0629-4530-8DE4-1080C972985F}" name="Clause Description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{2414CC6C-18E5-4C2B-B321-F12E1410A15E}" name="Question" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B2163D6D-DF7F-4DDD-8A2A-0F2617CD18C0}" name="Organisation Response" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{17DBA4E1-D455-49A8-A42A-7B1C2913D67C}" name="Provide justification if_x000a_&quot;Not applicable&quot;" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{FEC9D894-227E-4219-A03C-52ECD74A9F19}" name="Domain" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{49513455-20B4-439C-9C74-4130F74BF6C0}" name="Clause" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{269001BA-1D6A-4AE1-BC7F-76BF79027805}" name="Preparedness Tier" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6EF80625-0629-4530-8DE4-1080C972985F}" name="Clause Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2414CC6C-18E5-4C2B-B321-F12E1410A15E}" name="Question" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B2163D6D-DF7F-4DDD-8A2A-0F2617CD18C0}" name="Organisation Response" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{17DBA4E1-D455-49A8-A42A-7B1C2913D67C}" name="Provide justification if_x000a_&quot;Not applicable&quot;" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6521,14 +6527,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.81640625" customWidth="1"/>
-    <col min="3" max="3" width="47.54296875" customWidth="1"/>
+    <col min="1" max="1" width="69.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6549,22 +6555,22 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="1:17" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+    </row>
+    <row r="3" spans="1:17" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6575,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6586,7 +6592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -6598,7 +6604,7 @@
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:17" ht="65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6609,7 +6615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6636,7 +6642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6664,17 +6670,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7265625" customWidth="1"/>
-    <col min="4" max="4" width="54.1796875" customWidth="1"/>
-    <col min="5" max="5" width="56.453125" customWidth="1"/>
-    <col min="6" max="6" width="141.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" customWidth="1"/>
+    <col min="6" max="6" width="141.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -6691,7 +6697,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="130" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="138" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>89</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>391</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>409</v>
       </c>
@@ -6823,16 +6829,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.81640625" customWidth="1"/>
-    <col min="4" max="4" width="51.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -6849,7 +6855,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -6877,7 +6883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -6933,7 +6939,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>424</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>427</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>433</v>
       </c>
@@ -6991,15 +6997,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -7037,16 +7043,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
@@ -7059,11 +7065,11 @@
       <c r="D1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>108</v>
       </c>
@@ -7076,9 +7082,8 @@
       <c r="D2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="49"/>
-    </row>
-    <row r="3" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>111</v>
       </c>
@@ -7091,9 +7096,8 @@
       <c r="D3" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>114</v>
       </c>
@@ -7106,9 +7110,8 @@
       <c r="D4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>117</v>
       </c>
@@ -7121,9 +7124,8 @@
       <c r="D5" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="49"/>
-    </row>
-    <row r="6" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>119</v>
       </c>
@@ -7136,110 +7138,108 @@
       <c r="D6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="62" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="59" t="s">
         <v>796</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>797</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>491</v>
       </c>
       <c r="B11" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>798</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="59" t="s">
         <v>799</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62" t="s">
+      <c r="D12" s="59"/>
+      <c r="E12" s="59" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
         <v>497</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>800</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62" t="s">
+      <c r="D13" s="59"/>
+      <c r="E13" s="59" t="s">
         <v>851</v>
       </c>
     </row>
@@ -7257,20 +7257,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE53BDE-FC8F-438D-963C-35E0F4DC2B6A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="57.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.1796875" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="57.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>123</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>126</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="80.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="169" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>132</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>134</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>137</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>140</v>
       </c>
@@ -7399,22 +7399,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>801</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>513</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="C11" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="4" t="s">
         <v>853</v>
       </c>
@@ -7440,26 +7440,38 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCFB6B-3C6C-4953-85D3-FB8FFB9114B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE49E36-F5CD-44D3-B200-E16E13FDBA94}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" customWidth="1"/>
-    <col min="4" max="4" width="68.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="47" t="s">
@@ -7469,45 +7481,45 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="59" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>804</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="59" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>548</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="59" t="s">
         <v>805</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="59" t="s">
         <v>816</v>
       </c>
     </row>
@@ -7519,24 +7531,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC0D2EA-52F2-4B6B-AC11-A23DD7CFE197}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="58.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.77734375" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+    <col min="5" max="5" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -7553,7 +7565,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>142</v>
       </c>
@@ -7568,7 +7580,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="117" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>145</v>
       </c>
@@ -7583,7 +7595,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="156" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>147</v>
       </c>
@@ -7598,7 +7610,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>150</v>
       </c>
@@ -7613,7 +7625,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>152</v>
       </c>
@@ -7628,7 +7640,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>154</v>
       </c>
@@ -7643,7 +7655,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>156</v>
       </c>
@@ -7658,7 +7670,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>158</v>
       </c>
@@ -7673,7 +7685,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>160</v>
       </c>
@@ -7688,7 +7700,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>162</v>
       </c>
@@ -7703,7 +7715,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>164</v>
       </c>
@@ -7718,7 +7730,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>166</v>
       </c>
@@ -7733,8 +7745,8 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="208" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:5" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
         <v>552</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -7748,11 +7760,11 @@
         <v>813</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>581</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>195</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -7772,22 +7784,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB76018-1AB3-4DBC-A417-510F2265E6A8}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="45.81640625" customWidth="1"/>
-    <col min="4" max="4" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -7815,7 +7827,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -7829,7 +7841,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>599</v>
       </c>
@@ -7843,7 +7855,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>605</v>
       </c>
@@ -7857,7 +7869,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>611</v>
       </c>
@@ -7869,71 +7881,6 @@
       </c>
       <c r="D6" s="4" t="s">
         <v>821</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555CA66-08D6-4626-9ABE-3785D82DD208}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" customWidth="1"/>
-    <col min="4" max="4" width="70.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -7945,102 +7892,60 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689370AB-CFBC-4A68-AA99-E3C1B59F1C37}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555CA66-08D6-4626-9ABE-3785D82DD208}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="48" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
-        <v>705</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>826</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
-        <v>708</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>828</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
-        <v>726</v>
-      </c>
-      <c r="B5" s="61" t="s">
+    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
-        <v>732</v>
-      </c>
-      <c r="B6" s="61" t="s">
+      <c r="C2" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>831</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>832</v>
+      <c r="C3" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -8060,15 +7965,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -8079,7 +7984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -8100,23 +8005,130 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689370AB-CFBC-4A68-AA99-E3C1B59F1C37}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>827</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>828</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>732</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>831</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F1A34-2986-4505-918E-1D27D113C2E4}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="56.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" customWidth="1"/>
-    <col min="5" max="5" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -8133,7 +8145,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="208" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -8147,7 +8159,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -8161,17 +8173,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="59" t="s">
         <v>833</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="4" t="s">
         <v>834</v>
       </c>
@@ -8185,37 +8197,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7235B81-12AB-4CEF-A805-BE6F90970E27}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" customWidth="1"/>
-    <col min="4" max="4" width="68.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>763</v>
       </c>
@@ -8229,7 +8241,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>772</v>
       </c>
@@ -8243,7 +8255,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -8257,11 +8269,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>781</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" t="s">
         <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8279,25 +8291,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4C5A07-AF1D-4E42-9C62-6AFF1F9D3503}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" customWidth="1"/>
-    <col min="5" max="5" width="33.1796875" customWidth="1"/>
-    <col min="6" max="7" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" customWidth="1"/>
+    <col min="6" max="7" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>174</v>
       </c>
@@ -8320,7 +8332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>177</v>
       </c>
@@ -8337,7 +8349,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>177</v>
       </c>
@@ -8354,7 +8366,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>177</v>
       </c>
@@ -8373,7 +8385,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>177</v>
       </c>
@@ -8392,7 +8404,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>177</v>
       </c>
@@ -8411,7 +8423,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>177</v>
       </c>
@@ -8430,7 +8442,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>177</v>
       </c>
@@ -8449,7 +8461,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>177</v>
       </c>
@@ -8468,7 +8480,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>201</v>
       </c>
@@ -8485,7 +8497,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>201</v>
       </c>
@@ -8502,7 +8514,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>201</v>
       </c>
@@ -8521,7 +8533,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>201</v>
       </c>
@@ -8540,7 +8552,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="26"/>
     </row>
-    <row r="14" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>201</v>
       </c>
@@ -8559,7 +8571,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
@@ -8578,7 +8590,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>201</v>
       </c>
@@ -8597,7 +8609,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>201</v>
       </c>
@@ -8616,7 +8628,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>201</v>
       </c>
@@ -8635,7 +8647,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>225</v>
       </c>
@@ -8654,7 +8666,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>225</v>
       </c>
@@ -8673,7 +8685,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>225</v>
       </c>
@@ -8692,7 +8704,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>225</v>
       </c>
@@ -8711,7 +8723,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>225</v>
       </c>
@@ -8730,7 +8742,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>225</v>
       </c>
@@ -8749,7 +8761,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>225</v>
       </c>
@@ -8768,7 +8780,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>225</v>
       </c>
@@ -8787,7 +8799,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>225</v>
       </c>
@@ -8806,7 +8818,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>225</v>
       </c>
@@ -8825,7 +8837,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>225</v>
       </c>
@@ -8844,7 +8856,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>225</v>
       </c>
@@ -8863,7 +8875,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>256</v>
       </c>
@@ -8880,7 +8892,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>256</v>
       </c>
@@ -8897,7 +8909,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>256</v>
       </c>
@@ -8914,7 +8926,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>256</v>
       </c>
@@ -8931,7 +8943,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>256</v>
       </c>
@@ -8950,7 +8962,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
@@ -8969,7 +8981,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>256</v>
       </c>
@@ -8988,7 +9000,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>256</v>
       </c>
@@ -9007,7 +9019,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>256</v>
       </c>
@@ -9026,7 +9038,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>276</v>
       </c>
@@ -9045,7 +9057,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>276</v>
       </c>
@@ -9064,7 +9076,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>276</v>
       </c>
@@ -9083,7 +9095,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>276</v>
       </c>
@@ -9102,7 +9114,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>276</v>
       </c>
@@ -9121,7 +9133,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>276</v>
       </c>
@@ -9140,7 +9152,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>276</v>
       </c>
@@ -9159,7 +9171,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>276</v>
       </c>
@@ -9178,7 +9190,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>276</v>
       </c>
@@ -9197,7 +9209,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>302</v>
       </c>
@@ -9214,7 +9226,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>302</v>
       </c>
@@ -9231,7 +9243,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>302</v>
       </c>
@@ -9248,7 +9260,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>302</v>
       </c>
@@ -9267,7 +9279,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>302</v>
       </c>
@@ -9286,7 +9298,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>302</v>
       </c>
@@ -9305,7 +9317,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>302</v>
       </c>
@@ -9324,7 +9336,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>302</v>
       </c>
@@ -9343,7 +9355,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>320</v>
       </c>
@@ -9362,7 +9374,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>320</v>
       </c>
@@ -9381,7 +9393,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>320</v>
       </c>
@@ -9400,7 +9412,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>320</v>
       </c>
@@ -9419,7 +9431,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="25"/>
     </row>
-    <row r="61" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>320</v>
       </c>
@@ -9438,7 +9450,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="25"/>
     </row>
-    <row r="62" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>320</v>
       </c>
@@ -9457,7 +9469,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>320</v>
       </c>
@@ -9476,7 +9488,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>320</v>
       </c>
@@ -9495,7 +9507,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>320</v>
       </c>
@@ -9514,7 +9526,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="25"/>
     </row>
-    <row r="66" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>320</v>
       </c>
@@ -9533,7 +9545,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>320</v>
       </c>
@@ -9552,7 +9564,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>353</v>
       </c>
@@ -9571,7 +9583,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="25"/>
     </row>
-    <row r="69" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>353</v>
       </c>
@@ -9590,7 +9602,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>353</v>
       </c>
@@ -9609,7 +9621,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="25"/>
     </row>
-    <row r="71" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>353</v>
       </c>
@@ -9628,7 +9640,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="25"/>
     </row>
-    <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>353</v>
       </c>
@@ -9647,7 +9659,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>353</v>
       </c>
@@ -9666,7 +9678,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>353</v>
       </c>
@@ -9685,7 +9697,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>353</v>
       </c>
@@ -9704,7 +9716,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="25"/>
     </row>
-    <row r="76" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>353</v>
       </c>
@@ -9723,7 +9735,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="25"/>
     </row>
-    <row r="77" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -9742,7 +9754,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="25"/>
     </row>
-    <row r="78" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>383</v>
       </c>
@@ -9761,7 +9773,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="25"/>
     </row>
-    <row r="79" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>383</v>
       </c>
@@ -9780,7 +9792,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="25"/>
     </row>
-    <row r="80" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>383</v>
       </c>
@@ -9799,7 +9811,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="25"/>
     </row>
-    <row r="81" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>383</v>
       </c>
@@ -9818,7 +9830,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>383</v>
       </c>
@@ -9837,7 +9849,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="25"/>
     </row>
-    <row r="83" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>383</v>
       </c>
@@ -9856,7 +9868,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="25"/>
     </row>
-    <row r="84" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="138" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>383</v>
       </c>
@@ -9875,7 +9887,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="25"/>
     </row>
-    <row r="85" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>383</v>
       </c>
@@ -9894,7 +9906,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>383</v>
       </c>
@@ -9913,7 +9925,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>383</v>
       </c>
@@ -9932,7 +9944,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>383</v>
       </c>
@@ -9951,7 +9963,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>383</v>
       </c>
@@ -9970,7 +9982,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="25"/>
     </row>
-    <row r="90" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>383</v>
       </c>
@@ -9989,7 +10001,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="25"/>
     </row>
-    <row r="91" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>418</v>
       </c>
@@ -10008,7 +10020,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="25"/>
     </row>
-    <row r="92" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>418</v>
       </c>
@@ -10027,7 +10039,7 @@
       <c r="F92" s="18"/>
       <c r="G92" s="26"/>
     </row>
-    <row r="93" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>418</v>
       </c>
@@ -10046,7 +10058,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="26"/>
     </row>
-    <row r="94" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>418</v>
       </c>
@@ -10065,7 +10077,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="25"/>
     </row>
-    <row r="95" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>418</v>
       </c>
@@ -10084,7 +10096,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="25"/>
     </row>
-    <row r="96" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>418</v>
       </c>
@@ -10103,7 +10115,7 @@
       <c r="F96" s="18"/>
       <c r="G96" s="26"/>
     </row>
-    <row r="97" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>418</v>
       </c>
@@ -10122,7 +10134,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="26"/>
     </row>
-    <row r="98" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>418</v>
       </c>
@@ -10141,7 +10153,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="25"/>
     </row>
-    <row r="99" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>418</v>
       </c>
@@ -10160,7 +10172,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="25"/>
     </row>
-    <row r="100" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>418</v>
       </c>
@@ -10179,7 +10191,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="25"/>
     </row>
-    <row r="101" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>448</v>
       </c>
@@ -10196,7 +10208,7 @@
       <c r="F101" s="14"/>
       <c r="G101" s="24"/>
     </row>
-    <row r="102" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>448</v>
       </c>
@@ -10213,7 +10225,7 @@
       <c r="F102" s="14"/>
       <c r="G102" s="24"/>
     </row>
-    <row r="103" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>448</v>
       </c>
@@ -10230,7 +10242,7 @@
       <c r="F103" s="14"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>448</v>
       </c>
@@ -10249,7 +10261,7 @@
       <c r="F104" s="18"/>
       <c r="G104" s="26"/>
     </row>
-    <row r="105" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>448</v>
       </c>
@@ -10268,7 +10280,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="25"/>
     </row>
-    <row r="106" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>448</v>
       </c>
@@ -10287,7 +10299,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="25"/>
     </row>
-    <row r="107" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>448</v>
       </c>
@@ -10306,7 +10318,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="25"/>
     </row>
-    <row r="108" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>463</v>
       </c>
@@ -10325,7 +10337,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="25"/>
     </row>
-    <row r="109" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>463</v>
       </c>
@@ -10344,7 +10356,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="26"/>
     </row>
-    <row r="110" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>463</v>
       </c>
@@ -10363,7 +10375,7 @@
       <c r="F110" s="18"/>
       <c r="G110" s="26"/>
     </row>
-    <row r="111" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>463</v>
       </c>
@@ -10382,7 +10394,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="25"/>
     </row>
-    <row r="112" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>463</v>
       </c>
@@ -10401,7 +10413,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="25"/>
     </row>
-    <row r="113" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>463</v>
       </c>
@@ -10420,7 +10432,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="25"/>
     </row>
-    <row r="114" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>463</v>
       </c>
@@ -10439,7 +10451,7 @@
       <c r="F114" s="18"/>
       <c r="G114" s="26"/>
     </row>
-    <row r="115" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>463</v>
       </c>
@@ -10458,7 +10470,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="26"/>
     </row>
-    <row r="116" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>463</v>
       </c>
@@ -10477,7 +10489,7 @@
       <c r="F116" s="18"/>
       <c r="G116" s="26"/>
     </row>
-    <row r="117" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>463</v>
       </c>
@@ -10496,7 +10508,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="26"/>
     </row>
-    <row r="118" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>463</v>
       </c>
@@ -10515,7 +10527,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="25"/>
     </row>
-    <row r="119" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>463</v>
       </c>
@@ -10534,7 +10546,7 @@
       <c r="F119" s="9"/>
       <c r="G119" s="25"/>
     </row>
-    <row r="120" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>463</v>
       </c>
@@ -10553,7 +10565,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="25"/>
     </row>
-    <row r="121" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>503</v>
       </c>
@@ -10572,7 +10584,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="25"/>
     </row>
-    <row r="122" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>503</v>
       </c>
@@ -10591,7 +10603,7 @@
       <c r="F122" s="18"/>
       <c r="G122" s="26"/>
     </row>
-    <row r="123" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>503</v>
       </c>
@@ -10610,7 +10622,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="26"/>
     </row>
-    <row r="124" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>503</v>
       </c>
@@ -10629,7 +10641,7 @@
       <c r="F124" s="18"/>
       <c r="G124" s="26"/>
     </row>
-    <row r="125" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>503</v>
       </c>
@@ -10648,7 +10660,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="26"/>
     </row>
-    <row r="126" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>503</v>
       </c>
@@ -10667,7 +10679,7 @@
       <c r="F126" s="9"/>
       <c r="G126" s="25"/>
     </row>
-    <row r="127" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>503</v>
       </c>
@@ -10686,7 +10698,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="26"/>
     </row>
-    <row r="128" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>503</v>
       </c>
@@ -10705,7 +10717,7 @@
       <c r="F128" s="9"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>503</v>
       </c>
@@ -10724,7 +10736,7 @@
       <c r="F129" s="9"/>
       <c r="G129" s="25"/>
     </row>
-    <row r="130" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>503</v>
       </c>
@@ -10743,7 +10755,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="25"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>534</v>
       </c>
@@ -10760,7 +10772,7 @@
       <c r="F131" s="14"/>
       <c r="G131" s="24"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>534</v>
       </c>
@@ -10777,7 +10789,7 @@
       <c r="F132" s="14"/>
       <c r="G132" s="24"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>534</v>
       </c>
@@ -10794,7 +10806,7 @@
       <c r="F133" s="14"/>
       <c r="G133" s="24"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>534</v>
       </c>
@@ -10811,7 +10823,7 @@
       <c r="F134" s="14"/>
       <c r="G134" s="24"/>
     </row>
-    <row r="135" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>534</v>
       </c>
@@ -10830,7 +10842,7 @@
       <c r="F135" s="9"/>
       <c r="G135" s="25"/>
     </row>
-    <row r="136" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>534</v>
       </c>
@@ -10849,7 +10861,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="25"/>
     </row>
-    <row r="137" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>534</v>
       </c>
@@ -10868,7 +10880,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="25"/>
     </row>
-    <row r="138" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>534</v>
       </c>
@@ -10887,7 +10899,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="25"/>
     </row>
-    <row r="139" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>551</v>
       </c>
@@ -10906,7 +10918,7 @@
       <c r="F139" s="9"/>
       <c r="G139" s="25"/>
     </row>
-    <row r="140" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>551</v>
       </c>
@@ -10925,7 +10937,7 @@
       <c r="F140" s="18"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>551</v>
       </c>
@@ -10944,7 +10956,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>551</v>
       </c>
@@ -10963,7 +10975,7 @@
       <c r="F142" s="9"/>
       <c r="G142" s="25"/>
     </row>
-    <row r="143" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>551</v>
       </c>
@@ -10982,7 +10994,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="25"/>
     </row>
-    <row r="144" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>551</v>
       </c>
@@ -11001,7 +11013,7 @@
       <c r="F144" s="9"/>
       <c r="G144" s="25"/>
     </row>
-    <row r="145" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>551</v>
       </c>
@@ -11020,7 +11032,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="26"/>
     </row>
-    <row r="146" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>551</v>
       </c>
@@ -11039,7 +11051,7 @@
       <c r="F146" s="18"/>
       <c r="G146" s="26"/>
     </row>
-    <row r="147" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>551</v>
       </c>
@@ -11058,7 +11070,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="26"/>
     </row>
-    <row r="148" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>551</v>
       </c>
@@ -11077,7 +11089,7 @@
       <c r="F148" s="9"/>
       <c r="G148" s="25"/>
     </row>
-    <row r="149" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>551</v>
       </c>
@@ -11096,7 +11108,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="25"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>584</v>
       </c>
@@ -11113,7 +11125,7 @@
       <c r="F150" s="14"/>
       <c r="G150" s="24"/>
     </row>
-    <row r="151" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>584</v>
       </c>
@@ -11130,7 +11142,7 @@
       <c r="F151" s="14"/>
       <c r="G151" s="24"/>
     </row>
-    <row r="152" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>584</v>
       </c>
@@ -11147,7 +11159,7 @@
       <c r="F152" s="14"/>
       <c r="G152" s="24"/>
     </row>
-    <row r="153" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>584</v>
       </c>
@@ -11166,7 +11178,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="26"/>
     </row>
-    <row r="154" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>584</v>
       </c>
@@ -11185,7 +11197,7 @@
       <c r="F154" s="18"/>
       <c r="G154" s="26"/>
     </row>
-    <row r="155" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>584</v>
       </c>
@@ -11204,7 +11216,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="26"/>
     </row>
-    <row r="156" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>584</v>
       </c>
@@ -11223,7 +11235,7 @@
       <c r="F156" s="18"/>
       <c r="G156" s="26"/>
     </row>
-    <row r="157" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>584</v>
       </c>
@@ -11242,7 +11254,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="26"/>
     </row>
-    <row r="158" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>584</v>
       </c>
@@ -11261,7 +11273,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="25"/>
     </row>
-    <row r="159" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>584</v>
       </c>
@@ -11280,7 +11292,7 @@
       <c r="F159" s="9"/>
       <c r="G159" s="25"/>
     </row>
-    <row r="160" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>584</v>
       </c>
@@ -11299,7 +11311,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="25"/>
     </row>
-    <row r="161" spans="1:7" ht="182" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>614</v>
       </c>
@@ -11316,7 +11328,7 @@
       <c r="F161" s="14"/>
       <c r="G161" s="24"/>
     </row>
-    <row r="162" spans="1:7" ht="182" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>614</v>
       </c>
@@ -11333,7 +11345,7 @@
       <c r="F162" s="14"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="1:7" ht="182" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>614</v>
       </c>
@@ -11350,7 +11362,7 @@
       <c r="F163" s="14"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="1:7" ht="182" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>614</v>
       </c>
@@ -11367,7 +11379,7 @@
       <c r="F164" s="14"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>614</v>
       </c>
@@ -11386,7 +11398,7 @@
       <c r="F165" s="9"/>
       <c r="G165" s="25"/>
     </row>
-    <row r="166" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>614</v>
       </c>
@@ -11405,7 +11417,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="25"/>
     </row>
-    <row r="167" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>614</v>
       </c>
@@ -11424,7 +11436,7 @@
       <c r="F167" s="9"/>
       <c r="G167" s="25"/>
     </row>
-    <row r="168" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>614</v>
       </c>
@@ -11443,7 +11455,7 @@
       <c r="F168" s="9"/>
       <c r="G168" s="25"/>
     </row>
-    <row r="169" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>614</v>
       </c>
@@ -11462,7 +11474,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="25"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>636</v>
       </c>
@@ -11479,7 +11491,7 @@
       <c r="F170" s="14"/>
       <c r="G170" s="24"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>636</v>
       </c>
@@ -11496,7 +11508,7 @@
       <c r="F171" s="14"/>
       <c r="G171" s="24"/>
     </row>
-    <row r="172" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>636</v>
       </c>
@@ -11515,7 +11527,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="25"/>
     </row>
-    <row r="173" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -11534,7 +11546,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="25"/>
     </row>
-    <row r="174" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>636</v>
       </c>
@@ -11553,7 +11565,7 @@
       <c r="F174" s="18"/>
       <c r="G174" s="26"/>
     </row>
-    <row r="175" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>636</v>
       </c>
@@ -11572,7 +11584,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="26"/>
     </row>
-    <row r="176" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>636</v>
       </c>
@@ -11591,7 +11603,7 @@
       <c r="F176" s="18"/>
       <c r="G176" s="26"/>
     </row>
-    <row r="177" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>636</v>
       </c>
@@ -11610,7 +11622,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="25"/>
     </row>
-    <row r="178" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>636</v>
       </c>
@@ -11629,7 +11641,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="25"/>
     </row>
-    <row r="179" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>636</v>
       </c>
@@ -11648,7 +11660,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="25"/>
     </row>
-    <row r="180" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>636</v>
       </c>
@@ -11667,7 +11679,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="25"/>
     </row>
-    <row r="181" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>666</v>
       </c>
@@ -11684,7 +11696,7 @@
       <c r="F181" s="14"/>
       <c r="G181" s="24"/>
     </row>
-    <row r="182" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>666</v>
       </c>
@@ -11703,7 +11715,7 @@
       <c r="F182" s="18"/>
       <c r="G182" s="26"/>
     </row>
-    <row r="183" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>666</v>
       </c>
@@ -11722,7 +11734,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="26"/>
     </row>
-    <row r="184" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>666</v>
       </c>
@@ -11741,7 +11753,7 @@
       <c r="F184" s="18"/>
       <c r="G184" s="26"/>
     </row>
-    <row r="185" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>666</v>
       </c>
@@ -11760,7 +11772,7 @@
       <c r="F185" s="9"/>
       <c r="G185" s="25"/>
     </row>
-    <row r="186" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>666</v>
       </c>
@@ -11779,7 +11791,7 @@
       <c r="F186" s="9"/>
       <c r="G186" s="25"/>
     </row>
-    <row r="187" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>666</v>
       </c>
@@ -11798,7 +11810,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="25"/>
     </row>
-    <row r="188" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>666</v>
       </c>
@@ -11817,7 +11829,7 @@
       <c r="F188" s="18"/>
       <c r="G188" s="26"/>
     </row>
-    <row r="189" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>666</v>
       </c>
@@ -11836,7 +11848,7 @@
       <c r="F189" s="18"/>
       <c r="G189" s="26"/>
     </row>
-    <row r="190" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>666</v>
       </c>
@@ -11855,7 +11867,7 @@
       <c r="F190" s="18"/>
       <c r="G190" s="26"/>
     </row>
-    <row r="191" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>666</v>
       </c>
@@ -11874,7 +11886,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="25"/>
     </row>
-    <row r="192" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>666</v>
       </c>
@@ -11893,7 +11905,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="25"/>
     </row>
-    <row r="193" spans="1:7" ht="208" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="234.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>702</v>
       </c>
@@ -11910,7 +11922,7 @@
       <c r="F193" s="14"/>
       <c r="G193" s="24"/>
     </row>
-    <row r="194" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>702</v>
       </c>
@@ -11929,7 +11941,7 @@
       <c r="F194" s="18"/>
       <c r="G194" s="26"/>
     </row>
-    <row r="195" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>702</v>
       </c>
@@ -11948,7 +11960,7 @@
       <c r="F195" s="18"/>
       <c r="G195" s="26"/>
     </row>
-    <row r="196" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>702</v>
       </c>
@@ -11967,7 +11979,7 @@
       <c r="F196" s="18"/>
       <c r="G196" s="26"/>
     </row>
-    <row r="197" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>702</v>
       </c>
@@ -11986,7 +11998,7 @@
       <c r="F197" s="9"/>
       <c r="G197" s="25"/>
     </row>
-    <row r="198" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>702</v>
       </c>
@@ -12005,7 +12017,7 @@
       <c r="F198" s="9"/>
       <c r="G198" s="25"/>
     </row>
-    <row r="199" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>702</v>
       </c>
@@ -12024,7 +12036,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="26"/>
     </row>
-    <row r="200" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>702</v>
       </c>
@@ -12043,7 +12055,7 @@
       <c r="F200" s="18"/>
       <c r="G200" s="26"/>
     </row>
-    <row r="201" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>702</v>
       </c>
@@ -12062,7 +12074,7 @@
       <c r="F201" s="18"/>
       <c r="G201" s="26"/>
     </row>
-    <row r="202" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>702</v>
       </c>
@@ -12081,7 +12093,7 @@
       <c r="F202" s="9"/>
       <c r="G202" s="25"/>
     </row>
-    <row r="203" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>702</v>
       </c>
@@ -12100,7 +12112,7 @@
       <c r="F203" s="9"/>
       <c r="G203" s="25"/>
     </row>
-    <row r="204" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>735</v>
       </c>
@@ -12119,7 +12131,7 @@
       <c r="F204" s="9"/>
       <c r="G204" s="25"/>
     </row>
-    <row r="205" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>735</v>
       </c>
@@ -12138,7 +12150,7 @@
       <c r="F205" s="18"/>
       <c r="G205" s="26"/>
     </row>
-    <row r="206" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>735</v>
       </c>
@@ -12157,7 +12169,7 @@
       <c r="F206" s="9"/>
       <c r="G206" s="25"/>
     </row>
-    <row r="207" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>735</v>
       </c>
@@ -12176,7 +12188,7 @@
       <c r="F207" s="9"/>
       <c r="G207" s="25"/>
     </row>
-    <row r="208" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>735</v>
       </c>
@@ -12195,7 +12207,7 @@
       <c r="F208" s="18"/>
       <c r="G208" s="26"/>
     </row>
-    <row r="209" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>735</v>
       </c>
@@ -12214,7 +12226,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="26"/>
     </row>
-    <row r="210" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>735</v>
       </c>
@@ -12233,7 +12245,7 @@
       <c r="F210" s="9"/>
       <c r="G210" s="25"/>
     </row>
-    <row r="211" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>735</v>
       </c>
@@ -12252,7 +12264,7 @@
       <c r="F211" s="9"/>
       <c r="G211" s="25"/>
     </row>
-    <row r="212" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>760</v>
       </c>
@@ -12269,7 +12281,7 @@
       <c r="F212" s="14"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>760</v>
       </c>
@@ -12288,7 +12300,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="26"/>
     </row>
-    <row r="214" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>760</v>
       </c>
@@ -12307,7 +12319,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="25"/>
     </row>
-    <row r="215" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>760</v>
       </c>
@@ -12326,7 +12338,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="25"/>
     </row>
-    <row r="216" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>760</v>
       </c>
@@ -12345,7 +12357,7 @@
       <c r="F216" s="18"/>
       <c r="G216" s="26"/>
     </row>
-    <row r="217" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>760</v>
       </c>
@@ -12364,7 +12376,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="26"/>
     </row>
-    <row r="218" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>760</v>
       </c>
@@ -12383,7 +12395,7 @@
       <c r="F218" s="18"/>
       <c r="G218" s="26"/>
     </row>
-    <row r="219" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>760</v>
       </c>
@@ -12402,7 +12414,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="26"/>
     </row>
-    <row r="220" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>760</v>
       </c>
@@ -12421,7 +12433,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="25"/>
     </row>
-    <row r="221" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>760</v>
       </c>
@@ -12468,6 +12480,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCF0550-0E99-4CE4-903D-BCAEA286B323}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6616B60-6C7D-4691-A457-A61B608A70E9}">
   <sheetPr codeName="Sheet2"/>
@@ -12477,15 +12501,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12496,7 +12520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="117" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="138" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -12524,17 +12548,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.7265625" customWidth="1"/>
-    <col min="6" max="6" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12551,7 +12575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -12568,7 +12592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -12601,15 +12625,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12620,7 +12644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="125.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="125.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -12647,16 +12671,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12670,7 +12694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -12700,15 +12724,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12719,7 +12743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -12746,16 +12770,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.81640625" customWidth="1"/>
-    <col min="4" max="4" width="44.7265625" customWidth="1"/>
-    <col min="5" max="5" width="57.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12769,7 +12792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="113.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="113.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -12783,7 +12806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -12797,7 +12820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" s="38"/>
     </row>
   </sheetData>
@@ -12818,16 +12841,16 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="5" max="5" width="57.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12844,7 +12867,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -12858,7 +12881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="117" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -12872,7 +12895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -12886,7 +12909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -12900,7 +12923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -12914,7 +12937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
@@ -12928,7 +12951,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -12942,7 +12965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -12956,7 +12979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>354</v>
       </c>
@@ -12971,7 +12994,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>362</v>
       </c>
@@ -12986,7 +13009,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>368</v>
       </c>
@@ -13001,7 +13024,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>377</v>
       </c>

--- a/Capstone Dataset without Answers.xlsx
+++ b/Capstone Dataset without Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2fec667f7c86ea8/Important/Capstone/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="789" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C6B1A5-9E68-4642-9A2C-A98FBE99F774}"/>
+  <xr:revisionPtr revIDLastSave="790" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73AA989F-9F45-461D-BFA2-C88DA30773BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="22" xr2:uid="{C4378324-5452-4919-A683-490F04C84E34}"/>
   </bookViews>
@@ -6117,7 +6117,7 @@
   <autoFilter ref="A1:G221" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}">
     <filterColumn colId="0">
       <filters>
-        <filter val="B.9 Domain: Data protection and privacy"/>
+        <filter val="B.5 Domain: Compliance"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8295,7 +8295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4C5A07-AF1D-4E42-9C62-6AFF1F9D3503}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
@@ -9038,7 +9038,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>276</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>276</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>276</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>276</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>276</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>276</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>276</v>
       </c>
@@ -9171,7 +9171,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>276</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>276</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="25"/>
     </row>
-    <row r="78" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>383</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="25"/>
     </row>
-    <row r="79" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>383</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="25"/>
     </row>
-    <row r="80" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>383</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="25"/>
     </row>
-    <row r="81" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>383</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>383</v>
       </c>
@@ -9849,7 +9849,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="25"/>
     </row>
-    <row r="83" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>383</v>
       </c>
@@ -9868,7 +9868,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="25"/>
     </row>
-    <row r="84" spans="1:7" ht="138" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>383</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="25"/>
     </row>
-    <row r="85" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>383</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>383</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>383</v>
       </c>
@@ -9944,7 +9944,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>383</v>
       </c>
@@ -9963,7 +9963,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>383</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="25"/>
     </row>
-    <row r="90" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>383</v>
       </c>
@@ -13059,14 +13059,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C6AD2958B7004BABBF2542FA0759A5" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="82fe485139ae45ef5696bc26fc72e966">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4b56964bfa007738a55a3983173e6d0" ns3:_="">
     <xsd:import namespace="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
@@ -13248,6 +13240,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3907F4E3-FAD5-4253-8C8E-B07BB65EB7F4}">
   <ds:schemaRefs>
@@ -13257,16 +13257,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBCDF0B-D2BA-4C39-8FF7-B71DDC9797CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0AACCDC-ECF2-4D5E-86C9-1CAB48FC3D42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13282,4 +13272,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBCDF0B-D2BA-4C39-8FF7-B71DDC9797CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Capstone Dataset without Answers.xlsx
+++ b/Capstone Dataset without Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2fec667f7c86ea8/Important/Capstone/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="790" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73AA989F-9F45-461D-BFA2-C88DA30773BF}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F1E98B4-30D9-4186-BD27-656E364D296B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="22" xr2:uid="{C4378324-5452-4919-A683-490F04C84E34}"/>
   </bookViews>
@@ -6117,7 +6117,7 @@
   <autoFilter ref="A1:G221" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}">
     <filterColumn colId="0">
       <filters>
-        <filter val="B.5 Domain: Compliance"/>
+        <filter val="B.6 Domain: Audit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8295,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4C5A07-AF1D-4E42-9C62-6AFF1F9D3503}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9038,7 +9038,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>276</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>276</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>276</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>276</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>276</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>276</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>276</v>
       </c>
@@ -9171,7 +9171,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>276</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>276</v>
       </c>
@@ -9209,7 +9209,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>302</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>302</v>
       </c>
@@ -9243,7 +9243,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>302</v>
       </c>
@@ -9260,7 +9260,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="138" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>302</v>
       </c>
@@ -9279,7 +9279,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>302</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>302</v>
       </c>
@@ -9317,7 +9317,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>302</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>302</v>
       </c>
@@ -13059,6 +13059,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C6AD2958B7004BABBF2542FA0759A5" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="82fe485139ae45ef5696bc26fc72e966">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4b56964bfa007738a55a3983173e6d0" ns3:_="">
     <xsd:import namespace="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
@@ -13240,14 +13248,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3907F4E3-FAD5-4253-8C8E-B07BB65EB7F4}">
   <ds:schemaRefs>
@@ -13257,6 +13257,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBCDF0B-D2BA-4C39-8FF7-B71DDC9797CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0AACCDC-ECF2-4D5E-86C9-1CAB48FC3D42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13272,14 +13282,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBCDF0B-D2BA-4C39-8FF7-B71DDC9797CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Capstone Dataset without Answers.xlsx
+++ b/Capstone Dataset without Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2fec667f7c86ea8/Important/Capstone/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="792" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26086675-8C3D-4F47-A264-8707B5E99A6F}"/>
+  <xr:revisionPtr revIDLastSave="796" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA29828-8427-46AC-B7B8-6277AC029C2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="22" xr2:uid="{C4378324-5452-4919-A683-490F04C84E34}"/>
   </bookViews>
@@ -5923,10 +5923,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A5EDD2ED-F317-41E0-B9EA-6F42F9BE3CD9}" name="Table9" displayName="Table9" ref="A1:C10" totalsRowShown="0">
   <autoFilter ref="A1:C10" xr:uid="{A5EDD2ED-F317-41E0-B9EA-6F42F9BE3CD9}"/>
@@ -8296,7 +8292,7 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+      <selection activeCell="E194" sqref="E194:E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Capstone Dataset without Answers.xlsx
+++ b/Capstone Dataset without Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2fec667f7c86ea8/Important/Capstone/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="796" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA29828-8427-46AC-B7B8-6277AC029C2B}"/>
+  <xr:revisionPtr revIDLastSave="799" documentId="8_{BF4269A5-6DD2-4A5F-8985-34CC16678376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E1F90F-4EA7-4B44-BC7A-569E017E5283}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="22" xr2:uid="{C4378324-5452-4919-A683-490F04C84E34}"/>
   </bookViews>
@@ -5923,6 +5923,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A5EDD2ED-F317-41E0-B9EA-6F42F9BE3CD9}" name="Table9" displayName="Table9" ref="A1:C10" totalsRowShown="0">
   <autoFilter ref="A1:C10" xr:uid="{A5EDD2ED-F317-41E0-B9EA-6F42F9BE3CD9}"/>
@@ -6113,7 +6117,7 @@
   <autoFilter ref="A1:G221" xr:uid="{7BB44F78-57CB-4377-BAEA-8EEA5DBEB624}">
     <filterColumn colId="0">
       <filters>
-        <filter val="B.22 Domain: Business continuity/Disaster recovery"/>
+        <filter val="B.18 Domain: Vulnerability assessment"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8291,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4C5A07-AF1D-4E42-9C62-6AFF1F9D3503}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194:E203"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179:E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11470,7 +11474,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="25"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>636</v>
       </c>
@@ -11487,7 +11491,7 @@
       <c r="F170" s="14"/>
       <c r="G170" s="24"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>636</v>
       </c>
@@ -11504,7 +11508,7 @@
       <c r="F171" s="14"/>
       <c r="G171" s="24"/>
     </row>
-    <row r="172" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>636</v>
       </c>
@@ -11523,7 +11527,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="25"/>
     </row>
-    <row r="173" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -11542,7 +11546,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="25"/>
     </row>
-    <row r="174" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>636</v>
       </c>
@@ -11561,7 +11565,7 @@
       <c r="F174" s="18"/>
       <c r="G174" s="26"/>
     </row>
-    <row r="175" spans="1:7" ht="138" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="138" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>636</v>
       </c>
@@ -11580,7 +11584,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="26"/>
     </row>
-    <row r="176" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>636</v>
       </c>
@@ -11599,7 +11603,7 @@
       <c r="F176" s="18"/>
       <c r="G176" s="26"/>
     </row>
-    <row r="177" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>636</v>
       </c>
@@ -11618,7 +11622,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="25"/>
     </row>
-    <row r="178" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>636</v>
       </c>
@@ -11637,7 +11641,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="25"/>
     </row>
-    <row r="179" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>636</v>
       </c>
@@ -11656,7 +11660,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="25"/>
     </row>
-    <row r="180" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>636</v>
       </c>
@@ -12260,7 +12264,7 @@
       <c r="F211" s="9"/>
       <c r="G211" s="25"/>
     </row>
-    <row r="212" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>760</v>
       </c>
@@ -12277,7 +12281,7 @@
       <c r="F212" s="14"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>760</v>
       </c>
@@ -12296,7 +12300,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="26"/>
     </row>
-    <row r="214" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>760</v>
       </c>
@@ -12315,7 +12319,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="25"/>
     </row>
-    <row r="215" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>760</v>
       </c>
@@ -12334,7 +12338,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="25"/>
     </row>
-    <row r="216" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>760</v>
       </c>
@@ -12353,7 +12357,7 @@
       <c r="F216" s="18"/>
       <c r="G216" s="26"/>
     </row>
-    <row r="217" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>760</v>
       </c>
@@ -12372,7 +12376,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="26"/>
     </row>
-    <row r="218" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>760</v>
       </c>
@@ -12391,7 +12395,7 @@
       <c r="F218" s="18"/>
       <c r="G218" s="26"/>
     </row>
-    <row r="219" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>760</v>
       </c>
@@ -12410,7 +12414,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="26"/>
     </row>
-    <row r="220" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>760</v>
       </c>
@@ -12429,7 +12433,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="25"/>
     </row>
-    <row r="221" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>760</v>
       </c>
@@ -13046,15 +13050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C6AD2958B7004BABBF2542FA0759A5" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="82fe485139ae45ef5696bc26fc72e966">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ba8e16aa-8cbb-4107-a8f6-a7403072b12e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4b56964bfa007738a55a3983173e6d0" ns3:_="">
     <xsd:import namespace="ba8e16aa-8cbb-4107-a8f6-a7403072b12e"/>
@@ -13236,6 +13231,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13245,14 +13249,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3907F4E3-FAD5-4253-8C8E-B07BB65EB7F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0AACCDC-ECF2-4D5E-86C9-1CAB48FC3D42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13270,6 +13266,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3907F4E3-FAD5-4253-8C8E-B07BB65EB7F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBCDF0B-D2BA-4C39-8FF7-B71DDC9797CA}">
   <ds:schemaRefs>
